--- a/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\My Drive\new\repo\pxmake\tests\testthat\fixtures\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5422DA56-BB26-4C92-A620-4C6E217610DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554C89F0-AAD1-4732-B909-62BBCE518996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="0" windowWidth="24210" windowHeight="31680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16680" yWindow="0" windowWidth="24210" windowHeight="31680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
     <sheet name="Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="5" r:id="rId4"/>
+    <sheet name="Data table" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -280,9 +280,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -320,9 +320,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,26 +355,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,26 +390,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -894,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
@@ -986,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD2BD13-A44A-4975-95A6-A8F0A1992663}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554C89F0-AAD1-4732-B909-62BBCE518996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B36B6D-C497-46D6-A32C-CDB0E17DA29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="0" windowWidth="24210" windowHeight="31680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15315" yWindow="7575" windowWidth="20625" windowHeight="15090" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
     <sheet name="Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" r:id="rId3"/>
-    <sheet name="Data table" sheetId="5" r:id="rId4"/>
+    <sheet name="Data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B36B6D-C497-46D6-A32C-CDB0E17DA29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EDB6E2-3A32-4130-AED4-79120424F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15315" yWindow="7575" windowWidth="20625" windowHeight="15090" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="31680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>type</t>
   </si>
@@ -40,9 +40,6 @@
     <t/>
   </si>
   <si>
-    <t>2MD</t>
-  </si>
-  <si>
     <t>antal</t>
   </si>
   <si>
@@ -94,21 +91,9 @@
     <t>gender</t>
   </si>
   <si>
-    <t>FIGURES</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
     <t>precision</t>
   </si>
   <si>
@@ -194,6 +179,21 @@
   </si>
   <si>
     <t>Example without timeval</t>
+  </si>
+  <si>
+    <t>pivot</t>
+  </si>
+  <si>
+    <t>figures</t>
+  </si>
+  <si>
+    <t>heading</t>
+  </si>
+  <si>
+    <t>stub</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -580,23 +580,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4">
         <v>2000</v>
@@ -604,116 +604,116 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -729,16 +729,16 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -748,58 +748,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1">
+    <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="B2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -807,49 +807,52 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="3"/>
+    <row r="14" spans="1:8">
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -874,19 +877,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -952,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD2BD13-A44A-4975-95A6-A8F0A1992663}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,18 +971,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -987,10 +990,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -998,10 +1001,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1009,10 +1012,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1020,10 +1023,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1031,10 +1034,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1042,10 +1045,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1053,10 +1056,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>8</v>

--- a/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EDB6E2-3A32-4130-AED4-79120424F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C137BA30-4B1F-42A5-BA63-70A0B956125A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="31680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16995" windowHeight="31680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="4" r:id="rId1"/>
@@ -151,15 +151,6 @@
     <t>AXIS-VERSION</t>
   </si>
   <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>en_long_name</t>
-  </si>
-  <si>
-    <t>en_code_label</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -194,6 +185,15 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>en_code-label</t>
+  </si>
+  <si>
+    <t>variable-code</t>
+  </si>
+  <si>
+    <t>en_variable-label</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -648,7 +648,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -750,15 +750,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -767,16 +767,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -877,7 +877,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -886,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>23</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1012,10 +1012,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>8</v>

--- a/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672C1394-686C-409A-B264-9003E7702DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC556BF-2830-4A98-BEAF-9B2436438319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="0" windowWidth="24210" windowHeight="31785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="43200" windowHeight="23445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
   <si>
     <t>keyword</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>en_elimination</t>
   </si>
 </sst>
 </file>
@@ -276,15 +279,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:F4" totalsRowShown="0">
-  <autoFilter ref="A1:F4" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:G4" totalsRowShown="0">
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="pivot"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="order"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="variable-code"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="type"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="en_variable-label"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="en_note"/>
+    <tableColumn id="7" xr3:uid="{144F3902-8CA8-4D33-8101-D8540659A835}" name="en_elimination"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -835,10 +839,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,9 +853,10 @@
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -870,8 +875,11 @@
       <c r="F1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -885,7 +893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -899,7 +907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1050,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>

--- a/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC556BF-2830-4A98-BEAF-9B2436438319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F076AA-083B-4070-8C15-C0D43E198F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="43200" windowHeight="23445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="6930" windowWidth="15450" windowHeight="13425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="Table2" sheetId="2" r:id="rId2"/>
     <sheet name="Variables" sheetId="3" r:id="rId3"/>
-    <sheet name="Codelists" sheetId="4" r:id="rId4"/>
+    <sheet name="Cells" sheetId="4" r:id="rId4"/>
     <sheet name="Data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -841,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F076AA-083B-4070-8C15-C0D43E198F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A26A6A8-1CBE-4371-A309-6A914C16834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="6930" windowWidth="15450" windowHeight="13425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="5535" windowWidth="15450" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>keyword</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>en_elimination</t>
+  </si>
+  <si>
+    <t>variable-type</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="pivot"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="order"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="variable-code"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="variable-type"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="en_variable-label"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="en_note"/>
     <tableColumn id="7" xr3:uid="{144F3902-8CA8-4D33-8101-D8540659A835}" name="en_elimination"/>
@@ -841,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +870,7 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>42</v>
@@ -931,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Ejstrud\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Dropbox\repo\pxmake\tests\testthat\fixtures\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A26A6A8-1CBE-4371-A309-6A914C16834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A9A072-7256-471D-B69C-98AEB9AA062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="5535" windowWidth="15450" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14985" yWindow="0" windowWidth="24690" windowHeight="31785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -200,10 +200,10 @@
     <t>d</t>
   </si>
   <si>
-    <t>en_elimination</t>
-  </si>
-  <si>
     <t>variable-type</t>
+  </si>
+  <si>
+    <t>elimination</t>
   </si>
 </sst>
 </file>
@@ -289,9 +289,9 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="order"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="variable-code"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="variable-type"/>
+    <tableColumn id="7" xr3:uid="{144F3902-8CA8-4D33-8101-D8540659A835}" name="elimination"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="en_variable-label"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="en_note"/>
-    <tableColumn id="7" xr3:uid="{144F3902-8CA8-4D33-8101-D8540659A835}" name="en_elimination"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -845,7 +845,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,9 +854,9 @@
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,16 +870,16 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
       <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -906,7 +906,7 @@
       <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -917,7 +917,7 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>48</v>
       </c>
     </row>
